--- a/file/開發期測試區prod.xlsx
+++ b/file/開發期測試區prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QA-User\Desktop\PostmanWiki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QA-User\Desktop\QA-AutoTest-Api\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F552C1-49E5-4F41-B40E-2DB23CB7E5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AF1218-6BB9-4F76-AAC5-2B55A3824929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="區權人名單" sheetId="1" r:id="rId1"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -829,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
